--- a/biology/Botanique/Albert_Roguenant/Albert_Roguenant.xlsx
+++ b/biology/Botanique/Albert_Roguenant/Albert_Roguenant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Roguenant (né en 1933) est un producteur français et un auteur d'ouvrages botaniques. Entomologiste amateur avant de se spécialiser dans l'étude des Broméliacées, il a offert sa collection d'insectes au muséum d'histoire naturelle de Dijon[1]. Il codirige, avec Aline Raynal-Roques, la collection botanique des éditions Belin. Albert Roguenant est l'époux de Claudie Roguenant, auteure de plusieurs ouvrages sur les orchidées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Roguenant (né en 1933) est un producteur français et un auteur d'ouvrages botaniques. Entomologiste amateur avant de se spécialiser dans l'étude des Broméliacées, il a offert sa collection d'insectes au muséum d'histoire naturelle de Dijon. Il codirige, avec Aline Raynal-Roques, la collection botanique des éditions Belin. Albert Roguenant est l'époux de Claudie Roguenant, auteure de plusieurs ouvrages sur les orchidées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lyon, l'argent, le commerce et la soie, Lyon, Fondation Espace Bellecour, 1986, 138 p.,  (ISBN 978-2-9501272-0-4).
 Les Tillandsia et les Racinaea, Belin, 2001, 816 p.
@@ -547,10 +561,12 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1992 : La Controverse de Valladolid de Jean-Daniel Verhaeghe (producteur associé)
-1993 : Poisson-lune de Bertrand Van Effenterre (producteur)[2]</t>
+1993 : Poisson-lune de Bertrand Van Effenterre (producteur)</t>
         </is>
       </c>
     </row>
